--- a/addons/custom/forlife_business_objective_plan/static/xlsx/template_import_bo_store.xlsx
+++ b/addons/custom/forlife_business_objective_plan/static/xlsx/template_import_bo_store.xlsx
@@ -20,15 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">Mã khu vực</t>
+  </si>
   <si>
     <t xml:space="preserve">Mã cửa hàng</t>
   </si>
   <si>
-    <t xml:space="preserve">Mã nhân viên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mục tiêu cá nhân</t>
+    <t xml:space="preserve">Mục tiêu cửa hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3</t>
   </si>
 </sst>
 </file>
@@ -205,14 +214,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -227,36 +235,36 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>3004</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>108275</v>
-      </c>
       <c r="C2" s="0" t="n">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>3005</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>108276</v>
-      </c>
       <c r="C3" s="0" t="n">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>3121</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>108277</v>
-      </c>
       <c r="C4" s="0" t="n">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
     </row>
   </sheetData>

--- a/addons/custom/forlife_business_objective_plan/static/xlsx/template_import_bo_store.xlsx
+++ b/addons/custom/forlife_business_objective_plan/static/xlsx/template_import_bo_store.xlsx
@@ -214,10 +214,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.55"/>
@@ -261,7 +261,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3121</v>
+        <v>3007</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>100000000</v>
